--- a/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
+++ b/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>No</t>
   </si>
@@ -103,9 +103,6 @@
     <t>重要</t>
   </si>
   <si>
-    <t>不紧急</t>
-  </si>
-  <si>
     <t>New Features</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
   </si>
   <si>
     <t>通过</t>
-  </si>
-  <si>
-    <t>能</t>
   </si>
   <si>
     <t>配置汇总</t>
@@ -219,13 +213,65 @@
   <si>
     <t>执行结果及报错补救方案</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>房源批量录入页面，系统提示Http</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> status400</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>FixsBug</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源设置离职提示错误</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚林</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -370,6 +416,22 @@
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -553,7 +615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,6 +774,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1099,7 +1173,7 @@
   <dimension ref="A1:V167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1201,16 +1275,16 @@
         <v>22</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>19</v>
@@ -1226,71 +1300,115 @@
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="13">
-        <v>42695</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
       <c r="T2" s="19"/>
       <c r="U2" s="23"/>
       <c r="V2" s="24"/>
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
+      <c r="A3" s="55">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="13">
+        <v>42697</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="13">
+        <v>42697</v>
+      </c>
+      <c r="K3" s="56"/>
+      <c r="L3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
       <c r="T3" s="19"/>
       <c r="U3" s="23"/>
       <c r="V3" s="24"/>
     </row>
     <row r="4" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="18"/>
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="13">
+        <v>42697</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="13">
+        <v>42697</v>
+      </c>
+      <c r="K4" s="56"/>
+      <c r="L4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
       <c r="T4" s="19"/>
@@ -4898,7 +5016,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -4930,40 +5048,40 @@
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="D3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="E3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="F3" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="G3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="H3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="I3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="J3" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="K3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="L3" s="29" t="s">
         <v>42</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>44</v>
       </c>
       <c r="M3" s="31" t="s">
         <v>18</v>
@@ -5046,55 +5164,55 @@
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="D1" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="K1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="L1" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="M1" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="N1" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="P1" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="35" t="s">
+      <c r="Q1" s="35" t="s">
         <v>56</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>58</v>
       </c>
       <c r="R1" s="35" t="s">
         <v>18</v>

--- a/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
+++ b/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -215,12 +215,37 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>重要</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>紧急</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">子账号添加角色时偶尔插入其他渠道的角色
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚林</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -236,42 +261,26 @@
       </rPr>
       <t xml:space="preserve"> status400</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FixsBug</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>张飞</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>马丁组</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>房源设置离职提示错误</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>李亚林</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -416,22 +425,6 @@
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -615,7 +608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,18 +767,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1173,7 +1154,7 @@
   <dimension ref="A1:V167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S4"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1267,7 +1248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1275,7 +1256,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>26</v>
@@ -1311,61 +1292,75 @@
       <c r="O2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="54"/>
+      <c r="P2" s="13">
+        <v>42697</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="R2" s="16"/>
       <c r="S2" s="16"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24"/>
-    </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55">
+      <c r="T2" s="16"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+    </row>
+    <row r="3" spans="1:22" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="H3" s="13">
         <v>42697</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" s="13">
         <v>42697</v>
       </c>
-      <c r="K3" s="56"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="13">
+        <v>42697</v>
+      </c>
+      <c r="Q3" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="16"/>
+      <c r="R3" s="16">
+        <v>5250</v>
+      </c>
       <c r="S3" s="16"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="24"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="22"/>
     </row>
     <row r="4" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
@@ -1375,63 +1370,103 @@
         <v>22</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="H4" s="13">
         <v>42697</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="13">
         <v>42697</v>
       </c>
-      <c r="K4" s="56"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="13">
+        <v>42697</v>
+      </c>
+      <c r="Q4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="19"/>
+      <c r="R4" s="19">
+        <v>5234</v>
+      </c>
       <c r="S4" s="19"/>
       <c r="T4" s="19"/>
       <c r="U4" s="23"/>
       <c r="V4" s="24"/>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="13"/>
+    <row r="5" spans="1:22" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="13">
+        <v>42697</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="13">
+        <v>42697</v>
+      </c>
       <c r="K5" s="11"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="13"/>
+      <c r="L5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="13">
+        <v>42697</v>
+      </c>
       <c r="Q5" s="18"/>
       <c r="R5" s="19"/>
       <c r="S5" s="19"/>

--- a/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
+++ b/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MogoGit\Mogo_Doc\VersionRecords\Version 5.1.1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
   <si>
     <t>No</t>
   </si>
@@ -275,11 +275,27 @@
     <t>房源设置离职提示错误</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>BS短信列表报错</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1153,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1475,19 +1491,43 @@
       <c r="V5" s="24"/>
     </row>
     <row r="6" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="13"/>
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="13">
+        <v>42698</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="13">
+        <v>42698</v>
+      </c>
       <c r="K6" s="11"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="11"/>
+      <c r="L6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="13"/>
